--- a/ERP/ERP.Web/Content/Files/IMPORT_HANGTONKHO.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_HANGTONKHO.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MÃ HÀNG</t>
   </si>
   <si>
     <t xml:space="preserve"> SỐ LƯỢNG</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -45,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,12 +56,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,23 +379,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="52.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
